--- a/processeddata/GrafOprettelse.xlsx
+++ b/processeddata/GrafOprettelse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_me96y\Documents\SOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_me96y\Documents\SOP\processeddata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD5157E-DF66-48E2-8C3D-3B68C795CE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801A5245-BA7B-4206-B5D4-BAFB648D9B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{C7BC049D-9CB5-4F7D-ADC5-43533CC4DE24}"/>
   </bookViews>
@@ -19154,7 +19154,7 @@
   <dimension ref="A1:D1022"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33602,7 +33602,7 @@
         <v>746649000</v>
       </c>
       <c r="D963">
-        <f t="shared" ref="D963:D1024" si="15">C963*10^(-9)</f>
+        <f t="shared" ref="D963:D1022" si="15">C963*10^(-9)</f>
         <v>0.74664900000000001</v>
       </c>
     </row>
